--- a/testdata/提交订单.xlsx
+++ b/testdata/提交订单.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{'code': 1, 'message': '提交订单成功', 'data': {'orderType': 0, 'orderId': 50004730, 'orderSn': '201906120268'}, 'success': True}</t>
+          <t>{'code': 1, 'message': '提交订单成功', 'data': {'orderType': 0, 'orderId': 50004772, 'orderSn': '201906131933'}, 'success': True}</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>{'code': 1, 'message': '提交订单成功', 'data': {'orderType': 0, 'orderId': 50004731, 'orderSn': '201906126498'}, 'success': True}</t>
+          <t>{'code': 1, 'message': '提交订单成功', 'data': {'orderType': 0, 'orderId': 50004773, 'orderSn': '201906135243'}, 'success': True}</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
